--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DEC295-1E97-2849-B9BA-06E79F6C815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D4CDF3-6504-4142-924A-A8988716EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
   </si>
 </sst>
 </file>
@@ -455,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:Q17"/>
+      <selection activeCell="A18" sqref="A18:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -954,16 +957,16 @@
         <v>7.7223055929285698</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5.6940751809328463</v>
       </c>
       <c r="E10">
         <v>7.9968697536491966</v>
       </c>
       <c r="F10">
-        <v>2.940001689169204</v>
+        <v>9.5192593964960714</v>
       </c>
       <c r="G10">
-        <v>9.7121866456215695</v>
+        <v>9.7436782188727609</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -972,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>5.6973257305461322</v>
+        <v>5.7639563261395681</v>
       </c>
       <c r="K10">
         <v>8.2948221766160266</v>
@@ -990,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>53.384768982874597</v>
+        <v>53.416260556125778</v>
       </c>
       <c r="Q10">
-        <v>28.637327419715341</v>
+        <v>40.977290903568488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1013,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>5.1015168679839338</v>
+        <v>5.1917540839696512</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1043,10 +1046,10 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>40.628312378473652</v>
+        <v>40.718549594459368</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1153,6 +1156,218 @@
       </c>
       <c r="Q13">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>7.5340388076753779</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-8.6879916086649445</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>9.9890971639373252</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>8.9600055004626604</v>
+      </c>
+      <c r="J14">
+        <v>7.3262634567376814</v>
+      </c>
+      <c r="K14">
+        <v>-8.9646774144610468</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>8.8510752177056169</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>17.681547666654989</v>
+      </c>
+      <c r="Q14">
+        <v>37.326263456737678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>5.2678667095253404</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>6.5306568704626962</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>5.3209401076383749</v>
+      </c>
+      <c r="J15">
+        <v>6.2644858337444216</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>7.4036281179138328</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>29.52309180554024</v>
+      </c>
+      <c r="Q15">
+        <v>46.264485833744423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="E16">
+        <v>9.9333333333333336</v>
+      </c>
+      <c r="F16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>8.0333333333333332</v>
+      </c>
+      <c r="I16">
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="J16">
+        <v>9.2333333333333325</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>9.9</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>58</v>
+      </c>
+      <c r="Q16">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>9.1932710444356704</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>7.65300381756078</v>
+      </c>
+      <c r="H17">
+        <v>8.4049666170325192</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>33.846274861996449</v>
+      </c>
+      <c r="Q17">
+        <v>22.404966617032521</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/thehealthylife/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D4CDF3-6504-4142-924A-A8988716EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F7EE6-2589-3B42-8CE9-B49A17639B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
   </si>
 </sst>
 </file>
@@ -458,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:Q21"/>
+      <selection activeCell="A22" sqref="A22:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1172,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-8.6879916086649445</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>9.9890971639373252</v>
+        <v>9.9963696766329875</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1190,13 +1193,13 @@
         <v>7.3262634567376814</v>
       </c>
       <c r="K14">
-        <v>-8.9646774144610468</v>
+        <v>5.838972561904181</v>
       </c>
       <c r="L14">
         <v>10</v>
       </c>
       <c r="M14">
-        <v>8.8510752177056169</v>
+        <v>8.8576098012089517</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1205,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>17.681547666654989</v>
+        <v>51.186996347884147</v>
       </c>
       <c r="Q14">
         <v>37.326263456737678</v>
@@ -1225,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>8.6531568789633315</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -1243,7 +1246,7 @@
         <v>6.2644858337444216</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.8340438912736658</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -1258,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <v>29.52309180554024</v>
+        <v>45.010292575777243</v>
       </c>
       <c r="Q15">
         <v>46.264485833744423</v>
@@ -1368,6 +1371,218 @@
       </c>
       <c r="Q17">
         <v>22.404966617032521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>9.1538272296850707</v>
+      </c>
+      <c r="D18">
+        <v>5.0079195451244303</v>
+      </c>
+      <c r="E18">
+        <v>9.0995955873121481</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>9.3928467163721248</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>8.8410306119502025</v>
+      </c>
+      <c r="K18">
+        <v>9.7067890020044469</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>8.6442053003989052</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>45.997263835772699</v>
+      </c>
+      <c r="Q18">
+        <v>43.848950157074633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>7.9418103829017426</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>6.2406947890818856</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>9.3688320075931593</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>5.7342619070832113</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>34.916767079066837</v>
+      </c>
+      <c r="Q19">
+        <v>49.368832007593163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>9.5666666666666664</v>
+      </c>
+      <c r="D20">
+        <v>9.4666666666666668</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>8.1</v>
+      </c>
+      <c r="G20">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="H20">
+        <v>1.8666666666666669</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>9.6</v>
+      </c>
+      <c r="K20">
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>45.833333333333343</v>
+      </c>
+      <c r="Q20">
+        <v>39.033333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>7.8773084177742678</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>8.0124654398816197</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>22.889773857655889</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>7.688172043010753</v>
+        <v>7.032520325203253</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>8.327497339473387</v>
+        <v>7.842595042636203</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -610,16 +610,16 @@
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>7.784216772999354</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>7.690726035167328</v>
       </c>
       <c r="L3" t="n">
         <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>7.487016136894747</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
@@ -628,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>58.50268551937889</v>
+        <v>54.3019525141179</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>47.78421677299936</v>
       </c>
     </row>
     <row r="4">
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7.389409784569857</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>9.665356265356268</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>8.88682541623718</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.38940978456986</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>34</v>
+        <v>38.55218168159345</v>
       </c>
     </row>
     <row r="6">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.685869698042621</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -841,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="L7" t="n">
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>6.625711847061068</v>
+        <v>5.475474389477678</v>
       </c>
       <c r="N7" t="n">
         <v>5</v>
@@ -856,10 +856,10 @@
         <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>51.62571184706107</v>
+        <v>48.07964105614434</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.68586969804262</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>7.299645419586821</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.502310628892905</v>
+        <v>7.595868644067797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.053412747970604</v>
+        <v>9.02139307672871</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.863604323308273</v>
+        <v>9.054870827848864</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>8.624766330648681</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>34.36591495220118</v>
+        <v>26.65073947191666</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.0534127479706</v>
+        <v>24.94580482696421</v>
       </c>
     </row>
     <row r="10">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.232186863816565</v>
+        <v>5.326797385620915</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>6.08702647196255</v>
       </c>
       <c r="G11" t="n">
-        <v>5.191754083969651</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.359714279064894</v>
+        <v>6.419094569740111</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>7.599735299678578</v>
       </c>
       <c r="L11" t="n">
         <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>7.93489436760826</v>
+        <v>7.294146825396826</v>
       </c>
       <c r="N11" t="n">
         <v>5</v>
@@ -1084,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>40.71854959445937</v>
+        <v>31.63977408043643</v>
       </c>
       <c r="Q11" t="n">
-        <v>35</v>
+        <v>26.08702647196255</v>
       </c>
     </row>
     <row r="12">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>9.947515212981751</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7.501687341759451</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>7.684029484029486</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>8.130284078064943</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>27</v>
+        <v>28.07779929104669</v>
       </c>
       <c r="Q13" t="n">
-        <v>14</v>
+        <v>15.18571682578894</v>
       </c>
     </row>
     <row r="14">
@@ -1273,37 +1273,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.26786670952534</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>8.653156878963332</v>
+        <v>8.013737033922062</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>8.378595791234956</v>
       </c>
       <c r="G15" t="n">
-        <v>6.530656870462696</v>
+        <v>6.461988304093567</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>5.320940107638375</v>
+        <v>5.744047619047619</v>
       </c>
       <c r="J15" t="n">
-        <v>6.264485833744422</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>6.834043891273666</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>7.403628117913833</v>
+        <v>6.862649821833496</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
@@ -1312,10 +1312,10 @@
         <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>45.01029257577724</v>
+        <v>32.08242277889674</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.26448583374442</v>
+        <v>38.37859579123496</v>
       </c>
     </row>
     <row r="16">
@@ -1387,37 +1387,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.19327104443567</v>
+        <v>8.56883874239351</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.09988180652894</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.906411898685914</v>
       </c>
       <c r="G17" t="n">
-        <v>7.65300381756078</v>
+        <v>7.744835805084748</v>
       </c>
       <c r="H17" t="n">
-        <v>8.404966617032519</v>
+        <v>8.371659587780195</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9.995655062285692</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>33.84627486199645</v>
+        <v>26.30932960976395</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.40496661703252</v>
+        <v>24.37795329299505</v>
       </c>
     </row>
     <row r="18">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.941810382901743</v>
+        <v>7.577812075111158</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>6.240694789081886</v>
+        <v>5.560695262125035</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.368832007593159</v>
+        <v>6.75</v>
       </c>
       <c r="K19" t="n">
         <v>10</v>
@@ -1531,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>5.734261907083211</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
@@ -1540,10 +1540,10 @@
         <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>34.91676707906684</v>
+        <v>28.13850733723619</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.36883200759316</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="20">
@@ -1615,13 +1615,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.877308417774268</v>
+        <v>7.142621703853955</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>8.01246543988162</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1636,16 +1636,16 @@
         <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>7.259459459459459</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>7.524118171176993</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>32.88977385765589</v>
+        <v>34.14262170385395</v>
       </c>
       <c r="Q21" t="n">
-        <v>14</v>
+        <v>14.78357763063645</v>
       </c>
     </row>
     <row r="22">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.985151972336758</v>
+        <v>7.620071289457242</v>
       </c>
       <c r="D23" t="n">
         <v>5</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.497870913768093</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>8.925318895378776</v>
+        <v>8.506284634088708</v>
       </c>
       <c r="H23" t="n">
         <v>10</v>
@@ -1750,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>7.060290224995273</v>
       </c>
       <c r="L23" t="n">
         <v>10</v>
       </c>
       <c r="M23" t="n">
-        <v>5.867764072007431</v>
+        <v>5.242954324586978</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1768,10 +1768,10 @@
         <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>37.77823493972296</v>
+        <v>33.4296004731282</v>
       </c>
       <c r="Q23" t="n">
-        <v>49.4978709137681</v>
+        <v>37.58333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.973943939992102</v>
+        <v>8.331135902636916</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.050891532067897</v>
+        <v>8.1904998115042</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1864,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>8.533169533169534</v>
       </c>
       <c r="K25" t="n">
-        <v>9.07060620300752</v>
+        <v>8.163601553119236</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.09544167506752</v>
+        <v>34.68523726726035</v>
       </c>
       <c r="Q25" t="n">
-        <v>24</v>
+        <v>18.53316953316953</v>
       </c>
     </row>
     <row r="26">
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>9.790722055197051</v>
+        <v>9.801639749334793</v>
       </c>
       <c r="J26" t="n">
         <v>9.215486150517751</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>57.22202474150012</v>
+        <v>57.23294243563787</v>
       </c>
       <c r="Q26" t="n">
         <v>37.29133921876285</v>
@@ -1963,13 +1963,13 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>9.399880352993252</v>
       </c>
       <c r="F27" t="n">
-        <v>7.476883982816911</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>9.004276459366281</v>
+        <v>8.593941749940926</v>
       </c>
       <c r="H27" t="n">
         <v>10</v>
@@ -1978,16 +1978,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>7.989695594630365</v>
       </c>
       <c r="L27" t="n">
-        <v>5.20236360692893</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>6.332868388517618</v>
+        <v>5.186793510151945</v>
       </c>
       <c r="N27" t="n">
         <v>5</v>
@@ -1996,10 +1996,10 @@
         <v>5</v>
       </c>
       <c r="P27" t="n">
-        <v>50.3371448478839</v>
+        <v>46.17031120771648</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.67924758974584</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2074,34 +2074,34 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.966907641608724</v>
+        <v>9.197399743636698</v>
       </c>
       <c r="E29" t="n">
-        <v>8.6874423998027</v>
+        <v>7.773824877477729</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.020067493670377</v>
       </c>
       <c r="G29" t="n">
-        <v>7.803697006228649</v>
+        <v>7.893802966101695</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.485212982752619</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>9.951715225563913</v>
+        <v>9.153900747263267</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>7.209647268470797</v>
       </c>
       <c r="M29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.92806761434788</v>
+        <v>34.82152859084269</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.96690764160872</v>
+        <v>23.42711450577787</v>
       </c>
     </row>
     <row r="30">
@@ -2191,22 +2191,22 @@
         <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>9.411359250068928</v>
+        <v>8.784693019343987</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>8.000387431525157</v>
+        <v>7.479444134105586</v>
       </c>
       <c r="H31" t="n">
         <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>8.799330252435345</v>
+        <v>9.030257936507937</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>5.362488056318477</v>
       </c>
       <c r="K31" t="n">
         <v>10</v>
@@ -2224,10 +2224,10 @@
         <v>5</v>
       </c>
       <c r="P31" t="n">
-        <v>61.21107693402943</v>
+        <v>60.29439508995751</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>45.36248805631848</v>
       </c>
     </row>
     <row r="32">
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>8.375914572146819</v>
+        <v>7.416674934026471</v>
       </c>
       <c r="F33" t="n">
         <v>10</v>
@@ -2314,22 +2314,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>7.900619626302897</v>
+        <v>7.866311318598018</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
-        <v>8.277608082706768</v>
+        <v>7.272332278389609</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>9.358531770296477</v>
       </c>
       <c r="M33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>33.65352265485359</v>
+        <v>34.68900721241608</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.9006196263029</v>
+        <v>37.2248430888945</v>
       </c>
     </row>
     <row r="34">
@@ -2356,16 +2356,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.405877632101593</v>
+        <v>9.543878415821148</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.92316276551525</v>
+        <v>7.52149729394128</v>
       </c>
       <c r="F34" t="n">
-        <v>9.555774787130277</v>
+        <v>9.989386057808135</v>
       </c>
       <c r="G34" t="n">
         <v>10</v>
@@ -2386,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="M34" t="n">
-        <v>8.662711692952934</v>
+        <v>9.204521066022433</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>42.953602166678</v>
+        <v>46.23174685189308</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.55577478713028</v>
+        <v>39.98938605780813</v>
       </c>
     </row>
     <row r="35">
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.548592634991973</v>
+        <v>8.512797192518279</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
@@ -2422,16 +2422,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>7.298914092731612</v>
       </c>
       <c r="G35" t="n">
-        <v>8.090624647510875</v>
+        <v>8.143133725558091</v>
       </c>
       <c r="H35" t="n">
         <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>5.660182817166556</v>
+        <v>6.557542820446463</v>
       </c>
       <c r="J35" t="n">
         <v>10</v>
@@ -2440,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>5.121418164157358</v>
+        <v>10</v>
       </c>
       <c r="M35" t="n">
-        <v>5.768714078676559</v>
+        <v>5.713211584216516</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="P35" t="n">
-        <v>33.06811417834597</v>
+        <v>33.92668532273935</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.12141816415736</v>
+        <v>47.29891409273161</v>
       </c>
     </row>
     <row r="36">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.842347677325964</v>
+        <v>8.188514198782963</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.30600763512156</v>
+        <v>8.390360169491528</v>
       </c>
       <c r="H37" t="n">
         <v>10</v>
@@ -2548,16 +2548,16 @@
         <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>9.649050344335279</v>
       </c>
       <c r="L37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2566,10 +2566,238 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>54.14835531244752</v>
+        <v>56.22792471260977</v>
       </c>
       <c r="Q37" t="n">
-        <v>34</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8.827482417002898</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.408595154824254</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8.108288623909186</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.828778776927553</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.851680761956861</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.92984742569226</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.320480120057807</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>45.08502993789745</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>27.19012334247337</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>6.875252636607502</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.248015873015873</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>27.12326850962338</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8.566666666666666</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.733333333333334</v>
+      </c>
+      <c r="M40" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>49.13333333333333</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9.139325557809331</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8.428599773805038</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.541822329100206</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.737950211864405</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.395212285456189</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>33.70108782893496</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>17.54182232910021</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.03814992389177786</v>
+        <v>8.884406023071636</v>
       </c>
       <c r="L34" t="n">
         <v>10</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>46.23174685189308</v>
+        <v>55.15430279885649</v>
       </c>
       <c r="Q34" t="n">
         <v>39.98938605780813</v>
@@ -2437,7 +2437,7 @@
         <v>10</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.200268817204302</v>
       </c>
       <c r="L35" t="n">
         <v>10</v>
@@ -2452,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="P35" t="n">
-        <v>33.92668532273935</v>
+        <v>43.12695413994366</v>
       </c>
       <c r="Q35" t="n">
         <v>47.29891409273161</v>
@@ -2584,37 +2584,37 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.827482417002898</v>
+        <v>9.375392653040235</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.707957903279198</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>4.408595154824254</v>
+        <v>8.245895381890859</v>
       </c>
       <c r="G38" t="n">
-        <v>8.108288623909186</v>
+        <v>8.133770289685732</v>
       </c>
       <c r="H38" t="n">
         <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>9.828778776927553</v>
+        <v>9.834180205301827</v>
       </c>
       <c r="J38" t="n">
-        <v>4.851680761956861</v>
+        <v>4.970910650813735</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>9.006655644648301</v>
       </c>
       <c r="L38" t="n">
-        <v>7.92984742569226</v>
+        <v>7.965124710498671</v>
       </c>
       <c r="M38" t="n">
-        <v>8.320480120057807</v>
+        <v>8.361126978532944</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2623,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>45.08502993789745</v>
+        <v>54.71112577120905</v>
       </c>
       <c r="Q38" t="n">
-        <v>27.19012334247337</v>
+        <v>37.88988864648246</v>
       </c>
     </row>
     <row r="39">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.875252636607502</v>
+        <v>8.095487450850694</v>
       </c>
       <c r="D39" t="n">
         <v>5</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="P39" t="n">
-        <v>27.12326850962338</v>
+        <v>38.34350332386657</v>
       </c>
       <c r="Q39" t="n">
         <v>20</v>
@@ -2722,7 +2722,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="L40" t="n">
         <v>3.733333333333334</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>49.13333333333333</v>
+        <v>57.53333333333333</v>
       </c>
       <c r="Q40" t="n">
         <v>29.5</v>
@@ -2798,6 +2798,234 @@
       </c>
       <c r="Q41" t="n">
         <v>17.54182232910021</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7.880039597624814</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.89368192667437</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.882503529493397</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.956420962052553</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.974001671939833</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8.346956809256065</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-8.964677414461047</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.055991918239272</v>
+      </c>
+      <c r="M42" t="n">
+        <v>9.42093643331093</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>35.16040317714145</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>31.28545225698873</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5.184884062764118</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.100462125778582</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.601995184038527</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.124007936507937</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6.197176587792008</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>32.20852589688117</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8.833333333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6.266666666666666</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" t="n">
+        <v>10</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>54.53333333333333</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>42.23333333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.397245762711866</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7.397059354357424</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8.559721230776846</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>15.95696699348871</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>17.39705935435742</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>9.834180205301827</v>
+        <v>9.853016671285292</v>
       </c>
       <c r="J38" t="n">
         <v>4.970910650813735</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>54.71112577120905</v>
+        <v>54.7299622371925</v>
       </c>
       <c r="Q38" t="n">
         <v>37.88988864648246</v>
@@ -2812,37 +2812,37 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.880039597624814</v>
+        <v>8.505718531337935</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>8.89368192667437</v>
+        <v>9.034194337603026</v>
       </c>
       <c r="F42" t="n">
-        <v>4.882503529493397</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>8.956420962052553</v>
+        <v>9.423173432489826</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>8.974001671939833</v>
+        <v>9.807085235056215</v>
       </c>
       <c r="J42" t="n">
-        <v>8.346956809256065</v>
+        <v>9.222516160852724</v>
       </c>
       <c r="K42" t="n">
-        <v>-8.964677414461047</v>
+        <v>7.586106406679217</v>
       </c>
       <c r="L42" t="n">
-        <v>8.055991918239272</v>
+        <v>8.480318896884976</v>
       </c>
       <c r="M42" t="n">
-        <v>9.42093643331093</v>
+        <v>9.620710346813063</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>35.16040317714145</v>
+        <v>53.97698828997927</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.28545225698873</v>
+        <v>37.7028350577377</v>
       </c>
     </row>
     <row r="43">
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.184884062764118</v>
+        <v>6.246646823209494</v>
       </c>
       <c r="D43" t="n">
         <v>5</v>
@@ -2878,7 +2878,7 @@
         <v>5.100462125778582</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>8.305148056642892</v>
       </c>
       <c r="G43" t="n">
         <v>5.601995184038527</v>
@@ -2887,19 +2887,19 @@
         <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>5.124007936507937</v>
+        <v>6.178075396825397</v>
       </c>
       <c r="J43" t="n">
         <v>6.25</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>6.344086021505376</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>6.197176587792008</v>
+        <v>6.672650977269684</v>
       </c>
       <c r="N43" t="n">
         <v>5</v>
@@ -2908,10 +2908,10 @@
         <v>5</v>
       </c>
       <c r="P43" t="n">
-        <v>32.20852589688117</v>
+        <v>41.14391652862706</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.25</v>
+        <v>34.55514805664289</v>
       </c>
     </row>
     <row r="44">
@@ -3026,6 +3026,234 @@
       </c>
       <c r="Q45" t="n">
         <v>17.39705935435742</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4.905898911705448</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.412151258667126</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.164496298318326</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.218646392694135</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.834180205301827</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8.726235192354064</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-7.259499591077078</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9.082687021086471</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>32.19406419837793</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>37.89073149067239</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.279101391449843</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.454247854233139</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10.45424785423314</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>34.52910139144984</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8.033333333333333</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.933333333333334</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.466666666666667</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10</v>
+      </c>
+      <c r="M48" t="n">
+        <v>10</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>56.73333333333333</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>42.86666666666667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.923800700268314</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9.99232158988257</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>29.99232158988257</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>19.92380070026832</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3040,37 +3040,37 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.905898911705448</v>
+        <v>5.123940646266563</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.191675377571315</v>
       </c>
       <c r="E46" t="n">
-        <v>6.412151258667126</v>
+        <v>6.831376101351728</v>
       </c>
       <c r="F46" t="n">
-        <v>9.164496298318326</v>
+        <v>9.642405490877502</v>
       </c>
       <c r="G46" t="n">
-        <v>9.218646392694135</v>
+        <v>9.470279925674344</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>9.834180205301827</v>
+        <v>9.861057017220659</v>
       </c>
       <c r="J46" t="n">
-        <v>8.726235192354064</v>
+        <v>8.984847155626849</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.259499591077078</v>
+        <v>8.881755699782785</v>
       </c>
       <c r="L46" t="n">
         <v>10</v>
       </c>
       <c r="M46" t="n">
-        <v>9.082687021086471</v>
+        <v>9.11306104327611</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>32.19406419837793</v>
+        <v>49.28147043357219</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.89073149067239</v>
+        <v>44.81892802407566</v>
       </c>
     </row>
     <row r="47">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>5.279101391449843</v>
+        <v>6.388162183790014</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3121,13 +3121,13 @@
         <v>9.25</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>8.919100964265457</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M47" t="n">
-        <v>5.454247854233139</v>
+        <v>5.517927459966756</v>
       </c>
       <c r="N47" t="n">
         <v>5</v>
@@ -3136,10 +3136,10 @@
         <v>5</v>
       </c>
       <c r="P47" t="n">
-        <v>10.45424785423314</v>
+        <v>19.43702842423221</v>
       </c>
       <c r="Q47" t="n">
-        <v>34.52910139144984</v>
+        <v>45.63816218379002</v>
       </c>
     </row>
     <row r="48">
@@ -3178,7 +3178,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="L48" t="n">
         <v>10</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>56.73333333333333</v>
+        <v>53.6</v>
       </c>
       <c r="Q48" t="n">
         <v>42.86666666666667</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>10</v>
@@ -3250,10 +3250,238 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>29.99232158988257</v>
+        <v>19.99232158988257</v>
       </c>
       <c r="Q49" t="n">
         <v>19.92380070026832</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6.773942304219698</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.689517589037555</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.19160777329574</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.034852341172611</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.063173608073821</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5.148748490536102</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>39.64706072496596</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>33.25478138136956</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.401848503114326</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.384024577572965</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.117991056071551</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.531583773439022</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8.919100964265457</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5</v>
+      </c>
+      <c r="P51" t="n">
+        <v>31.97052429689035</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>35.38402457757297</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8.066666666666666</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.733333333333334</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>10</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.666666666666668</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>47.46666666666667</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.341147392396427</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.816216216216217</v>
+      </c>
+      <c r="K53" t="n">
+        <v>10</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>26.15736360861264</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,7 +3064,7 @@
         <v>8.984847155626849</v>
       </c>
       <c r="K46" t="n">
-        <v>8.881755699782785</v>
+        <v>8.897626167111405</v>
       </c>
       <c r="L46" t="n">
         <v>10</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>49.28147043357219</v>
+        <v>49.29734090090081</v>
       </c>
       <c r="Q46" t="n">
         <v>44.81892802407566</v>
@@ -3121,7 +3121,7 @@
         <v>9.25</v>
       </c>
       <c r="K47" t="n">
-        <v>8.919100964265457</v>
+        <v>8.958096993760634</v>
       </c>
       <c r="L47" t="n">
         <v>10</v>
@@ -3136,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="n">
-        <v>19.43702842423221</v>
+        <v>19.47602445372739</v>
       </c>
       <c r="Q47" t="n">
         <v>45.63816218379002</v>
@@ -3268,19 +3268,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6.773942304219698</v>
+        <v>7.156497794076754</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>8.689517589037555</v>
+        <v>8.791681087913137</v>
       </c>
       <c r="F50" t="n">
-        <v>9.19160777329574</v>
+        <v>9.862076629158473</v>
       </c>
       <c r="G50" t="n">
-        <v>9.034852341172611</v>
+        <v>9.082952337782311</v>
       </c>
       <c r="H50" t="n">
         <v>10</v>
@@ -3289,16 +3289,16 @@
         <v>10</v>
       </c>
       <c r="J50" t="n">
-        <v>4.063173608073821</v>
+        <v>4.265543567337613</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>8.357452194061691</v>
       </c>
       <c r="L50" t="n">
         <v>10</v>
       </c>
       <c r="M50" t="n">
-        <v>5.148748490536102</v>
+        <v>6.219575926922761</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39.64706072496596</v>
+        <v>49.60815934075665</v>
       </c>
       <c r="Q50" t="n">
-        <v>33.25478138136956</v>
+        <v>34.12762019649608</v>
       </c>
     </row>
     <row r="51">
@@ -3334,7 +3334,7 @@
         <v>5.401848503114326</v>
       </c>
       <c r="F51" t="n">
-        <v>5.384024577572965</v>
+        <v>6.953709740148909</v>
       </c>
       <c r="G51" t="n">
         <v>6.117991056071551</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>8.919100964265457</v>
+        <v>7.729722064662507</v>
       </c>
       <c r="L51" t="n">
         <v>10</v>
@@ -3364,10 +3364,10 @@
         <v>5</v>
       </c>
       <c r="P51" t="n">
-        <v>31.97052429689035</v>
+        <v>30.7811453972874</v>
       </c>
       <c r="Q51" t="n">
-        <v>35.38402457757297</v>
+        <v>36.95370974014891</v>
       </c>
     </row>
     <row r="52">
@@ -3482,6 +3482,918 @@
       </c>
       <c r="Q53" t="n">
         <v>26.15736360861264</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6.734143537613756</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.147439122690919</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9.186394141726881</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9.67437685676328</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.451451233987699</v>
+      </c>
+      <c r="J54" t="n">
+        <v>9.761738846049981</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-11.27845954605864</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8.44835319582184</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>32.54188256309153</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>38.58355482550418</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.601995184038527</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6.689040092207366</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.674107142857142</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>27.27610232689567</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>22.10570675887404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.966666666666667</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6.733333333333334</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.333333333333332</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="K56" t="n">
+        <v>8.566666666666666</v>
+      </c>
+      <c r="L56" t="n">
+        <v>10</v>
+      </c>
+      <c r="M56" t="n">
+        <v>10</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>52.46666666666667</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>40.36666666666667</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7.299645419586821</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7.33875338753388</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>10</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>17.33875338753388</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>17.29964541958682</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>6.627725557666349</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.966867400376216</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.500850809362989</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10</v>
+      </c>
+      <c r="J58" t="n">
+        <v>10</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.547189050629413</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>46.14178200867198</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>39.50085080936299</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.109704641350211</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.042957831207311</v>
+      </c>
+      <c r="G59" t="n">
+        <v>10</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>10</v>
+      </c>
+      <c r="M59" t="n">
+        <v>6.494348081215556</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>38.60405272256577</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>46.04295783120731</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5.266666666666666</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="n">
+        <v>10</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9.966666666666667</v>
+      </c>
+      <c r="M60" t="n">
+        <v>10</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>55.26666666666667</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>49.66666666666667</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8.048758968553875</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9.083374670132347</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8.906411898685914</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.731064618644069</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>10</v>
+      </c>
+      <c r="K61" t="n">
+        <v>10</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>38.81443928877641</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>36.95517086723979</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>7.306175360613179</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7.686217868402406</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.340217078452969</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.159198869261736</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.302760544226381</v>
+      </c>
+      <c r="M62" t="n">
+        <v>6.521995793183863</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>38.85460610065241</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>36.46195941348812</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.237934285962108</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.420423127976122</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>14.42042312797612</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>29.23793428596211</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9.566666666666666</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10</v>
+      </c>
+      <c r="K64" t="n">
+        <v>10</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M64" t="n">
+        <v>10</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>48.63333333333333</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>42.23333333333333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>9.091784989858015</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.674692874692878</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8.906325948727257</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>17.99811093858527</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>18.67469287469288</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>8.165351244324929</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8.677290168746785</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9.636502603385344</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8.533983577496596</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9.561589654654696</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.530479160535133</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6.370675244861128</v>
+      </c>
+      <c r="M66" t="n">
+        <v>8.413735738837513</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>43.35195038406052</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>34.53765700878161</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5.644453018777788</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7.416666666666666</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.860119047619047</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>6.05406746031746</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>23.55863952671429</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>24.91666666666666</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>7.333333333333332</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9.766666666666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>10</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10</v>
+      </c>
+      <c r="M68" t="n">
+        <v>10</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>44.56666666666666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9.234507415254239</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7.872727272727277</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>7.226056815612979</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>23.46056423086722</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>24.87272727272727</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>10</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>46.14178200867198</v>
+        <v>56.14178200867198</v>
       </c>
       <c r="Q58" t="n">
         <v>39.50085080936299</v>
@@ -3805,7 +3805,7 @@
         <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>10</v>
@@ -3820,7 +3820,7 @@
         <v>5</v>
       </c>
       <c r="P59" t="n">
-        <v>38.60405272256577</v>
+        <v>48.60405272256577</v>
       </c>
       <c r="Q59" t="n">
         <v>46.04295783120731</v>
@@ -3976,7 +3976,7 @@
         <v>8.159198869261736</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>5.05428254052051</v>
       </c>
       <c r="L62" t="n">
         <v>8.302760544226381</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>38.85460610065241</v>
+        <v>43.90888864117292</v>
       </c>
       <c r="Q62" t="n">
         <v>36.46195941348812</v>
@@ -4180,19 +4180,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8.165351244324929</v>
+        <v>8.267498023991639</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>8.677290168746785</v>
+        <v>9.283341450444405</v>
       </c>
       <c r="F66" t="n">
-        <v>9.636502603385344</v>
+        <v>9.671764360928973</v>
       </c>
       <c r="G66" t="n">
-        <v>8.533983577496596</v>
+        <v>8.845477511833186</v>
       </c>
       <c r="H66" t="n">
         <v>10</v>
@@ -4201,16 +4201,16 @@
         <v>9.561589654654696</v>
       </c>
       <c r="J66" t="n">
-        <v>8.530479160535133</v>
+        <v>8.665939789363749</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>5.029152569837716</v>
       </c>
       <c r="L66" t="n">
         <v>6.370675244861128</v>
       </c>
       <c r="M66" t="n">
-        <v>8.413735738837513</v>
+        <v>8.497192135879818</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>43.35195038406052</v>
+        <v>49.48425134664146</v>
       </c>
       <c r="Q66" t="n">
-        <v>34.53765700878161</v>
+        <v>34.70837939515385</v>
       </c>
     </row>
     <row r="67">
@@ -4237,13 +4237,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5.644453018777788</v>
+        <v>5.818772277955388</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>5.093366161336728</v>
       </c>
       <c r="F67" t="n">
         <v>7.416666666666666</v>
@@ -4276,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="P67" t="n">
-        <v>23.55863952671429</v>
+        <v>28.82632494722863</v>
       </c>
       <c r="Q67" t="n">
         <v>24.91666666666666</v>
@@ -4309,7 +4309,7 @@
         <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>4.800000000000001</v>
+        <v>5.466666666666665</v>
       </c>
       <c r="I68" t="n">
         <v>10</v>
@@ -4336,7 +4336,7 @@
         <v>55.66666666666666</v>
       </c>
       <c r="Q68" t="n">
-        <v>44.56666666666666</v>
+        <v>45.23333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -4394,6 +4394,234 @@
       </c>
       <c r="Q69" t="n">
         <v>24.87272727272727</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2.592116780107857</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.9077370427399134</v>
+      </c>
+      <c r="G70" t="n">
+        <v>9.81730111975042</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7.143716354056565</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-8.964677414461047</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>8.065621994318109</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>21.51036247971534</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>16.23597931131665</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>8.854779927109616</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.773993808049536</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5.595488300406333</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>24.62877373515915</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>15.59548830040633</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>10</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7.666666666666668</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8.133333333333333</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7.666666666666668</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9.933333333333334</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>10</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>47.26666666666667</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>34.90000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>8.996703853955378</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8.155081758130692</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>7.731203931203932</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>18.99670385395538</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>15.88628568933462</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4864,19 +4864,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.43381172644199</v>
+        <v>7.549194711154685</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>5.974164487475481</v>
+        <v>6.628340588899219</v>
       </c>
       <c r="F78" t="n">
-        <v>8.971894891882451</v>
+        <v>9.642405490877502</v>
       </c>
       <c r="G78" t="n">
-        <v>9.824957274498782</v>
+        <v>10</v>
       </c>
       <c r="H78" t="n">
         <v>10</v>
@@ -4885,16 +4885,16 @@
         <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>5.566942130578275</v>
+        <v>9.100944579857059</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>6.771123252758398</v>
       </c>
       <c r="L78" t="n">
-        <v>8.085739504094102</v>
+        <v>8.173423997973947</v>
       </c>
       <c r="M78" t="n">
-        <v>8.068379600428637</v>
+        <v>8.250745890327224</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4903,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>41.30131308884489</v>
+        <v>49.19940444313953</v>
       </c>
       <c r="Q78" t="n">
-        <v>32.62457652655483</v>
+        <v>36.91677406870851</v>
       </c>
     </row>
     <row r="79">
@@ -4930,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>6.388162183790014</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>7.016113664601006</v>
       </c>
       <c r="H79" t="n">
         <v>10</v>
@@ -4942,10 +4942,10 @@
         <v>8.036437246963562</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>8.864247311827958</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>5</v>
       </c>
       <c r="P79" t="n">
-        <v>18.11742202182589</v>
+        <v>33.99778299825485</v>
       </c>
       <c r="Q79" t="n">
-        <v>20</v>
+        <v>33.55482885045668</v>
       </c>
     </row>
     <row r="80">
@@ -5078,6 +5078,690 @@
       </c>
       <c r="Q81" t="n">
         <v>18.4649270379376</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>8.722749684893522</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9.221475611590259</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.749767230085205</v>
+      </c>
+      <c r="G82" t="n">
+        <v>10</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8.260408655254752</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.79024057223331</v>
+      </c>
+      <c r="K82" t="n">
+        <v>7.54678814283904</v>
+      </c>
+      <c r="L82" t="n">
+        <v>10</v>
+      </c>
+      <c r="M82" t="n">
+        <v>7.4293156017495</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>51.18073769632707</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>35.54000780231851</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>6.663956564877079</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.602772754671489</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6.659918801780653</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8.610374300029473</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>6.221875590848932</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>5</v>
+      </c>
+      <c r="P83" t="n">
+        <v>32.09897921042698</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>16.65991880178065</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>10</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="G84" t="n">
+        <v>10</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="J84" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>47.66666666666666</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>9.804893509127792</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8.666699736105876</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7.496557203389831</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8.227274368013861</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>10</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>25.9681504486235</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>18.22727436801386</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>9.597519948473307</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.219575926922761</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6.672501067074402</v>
+      </c>
+      <c r="G86" t="n">
+        <v>10</v>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9.758160930131737</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.430919834859837</v>
+      </c>
+      <c r="M86" t="n">
+        <v>8.391290575406098</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>53.9665473809339</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>29.10342090193424</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>8.650139639143054</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>10</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9.67635301023622</v>
+      </c>
+      <c r="K87" t="n">
+        <v>10</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>7.294146825396826</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>5</v>
+      </c>
+      <c r="P87" t="n">
+        <v>50.94428646453989</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>19.67635301023622</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8.966666666666667</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8.866666666666667</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+      <c r="K88" t="n">
+        <v>10</v>
+      </c>
+      <c r="L88" t="n">
+        <v>10</v>
+      </c>
+      <c r="M88" t="n">
+        <v>10</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>58.96666666666667</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>38.86666666666667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>9.274067211319799</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7.621047877145439</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="n">
+        <v>7.420877157511213</v>
+      </c>
+      <c r="L89" t="n">
+        <v>10</v>
+      </c>
+      <c r="M89" t="n">
+        <v>10</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>45.04192503465665</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>39.2740672113198</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>6.082292043125899</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9.356597798036287</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10</v>
+      </c>
+      <c r="J90" t="n">
+        <v>10</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-8.964677414461047</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.157061367416563</v>
+      </c>
+      <c r="M90" t="n">
+        <v>7.452600772450518</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>33.92681319915166</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>21.15706136741656</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7.312867956265769</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9.511819424389536</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5</v>
+      </c>
+      <c r="O91" t="n">
+        <v>5</v>
+      </c>
+      <c r="P91" t="n">
+        <v>32.31286795626577</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>29.51181942438954</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>10</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>10</v>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10</v>
+      </c>
+      <c r="K92" t="n">
+        <v>10</v>
+      </c>
+      <c r="L92" t="n">
+        <v>10</v>
+      </c>
+      <c r="M92" t="n">
+        <v>10</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>52.13333333333333</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>8.045892494929006</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7.893802966101695</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9.995577395577399</v>
+      </c>
+      <c r="K93" t="n">
+        <v>10</v>
+      </c>
+      <c r="L93" t="n">
+        <v>10</v>
+      </c>
+      <c r="M93" t="n">
+        <v>8.356340893677945</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>44.29603635470865</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>29.9955773955774</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5329,7 +5329,7 @@
         <v>6.219575926922761</v>
       </c>
       <c r="F86" t="n">
-        <v>6.672501067074402</v>
+        <v>9.407253593377034</v>
       </c>
       <c r="G86" t="n">
         <v>10</v>
@@ -5362,7 +5362,7 @@
         <v>53.9665473809339</v>
       </c>
       <c r="Q86" t="n">
-        <v>29.10342090193424</v>
+        <v>31.83817342823687</v>
       </c>
     </row>
     <row r="87">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>5.822614627431119</v>
       </c>
       <c r="G87" t="n">
         <v>10</v>
@@ -5419,7 +5419,7 @@
         <v>50.94428646453989</v>
       </c>
       <c r="Q87" t="n">
-        <v>19.67635301023622</v>
+        <v>25.49896763766734</v>
       </c>
     </row>
     <row r="88">
@@ -5548,16 +5548,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.082292043125899</v>
+        <v>6.844717012085865</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>9.356597798036287</v>
+        <v>9.538919156451357</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>9.792327288220028</v>
       </c>
       <c r="G90" t="n">
         <v>10</v>
@@ -5572,13 +5572,13 @@
         <v>10</v>
       </c>
       <c r="K90" t="n">
-        <v>-8.964677414461047</v>
+        <v>5.765605168853732</v>
       </c>
       <c r="L90" t="n">
-        <v>1.157061367416563</v>
+        <v>2.610188788384008</v>
       </c>
       <c r="M90" t="n">
-        <v>7.452600772450518</v>
+        <v>7.8313747381388</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5587,10 +5587,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>33.92681319915166</v>
+        <v>49.98061607552975</v>
       </c>
       <c r="Q90" t="n">
-        <v>21.15706136741656</v>
+        <v>32.40251607660404</v>
       </c>
     </row>
     <row r="91">
@@ -5614,7 +5614,7 @@
         <v>7.312867956265769</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="G91" t="n">
         <v>10</v>
@@ -5626,7 +5626,7 @@
         <v>10</v>
       </c>
       <c r="J91" t="n">
-        <v>9.511819424389536</v>
+        <v>9.887161667102284</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>32.31286795626577</v>
       </c>
       <c r="Q91" t="n">
-        <v>29.51181942438954</v>
+        <v>37.72049500043562</v>
       </c>
     </row>
     <row r="92">
@@ -5671,7 +5671,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2.333333333333332</v>
       </c>
       <c r="G92" t="n">
         <v>10</v>
@@ -5704,7 +5704,7 @@
         <v>52.13333333333333</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>32.33333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -5762,6 +5762,462 @@
       </c>
       <c r="Q93" t="n">
         <v>29.9955773955774</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>8.35475344542496</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.878390754910651</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9.310956088448684</v>
+      </c>
+      <c r="G94" t="n">
+        <v>10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.941346394792772</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-8.964677414461047</v>
+      </c>
+      <c r="L94" t="n">
+        <v>6.763844676910046</v>
+      </c>
+      <c r="M94" t="n">
+        <v>9.00656105060188</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>33.21637423126921</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>36.07480076535873</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>5.971961929959944</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6.583333333333333</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7.751977984176126</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.062003968253968</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5.434027777777778</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>5</v>
+      </c>
+      <c r="P95" t="n">
+        <v>29.21997166016781</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>26.58333333333333</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.266666666666667</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5.733333333333334</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="n">
+        <v>10</v>
+      </c>
+      <c r="K96" t="n">
+        <v>9.566666666666666</v>
+      </c>
+      <c r="L96" t="n">
+        <v>10</v>
+      </c>
+      <c r="M96" t="n">
+        <v>10</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>59.23333333333333</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>9.852434077079108</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8.384657063256086</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8.489671610169495</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7.108288914824752</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9.99232158988257</v>
+      </c>
+      <c r="J97" t="n">
+        <v>10</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>8.310295427942485</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>28.33442727713118</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>33.80324140602332</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2.802331824079988</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9.455073435052073</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8.677223592853386</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9.505661273856012</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>9.431214239560413</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.744036274687891</v>
+      </c>
+      <c r="M98" t="n">
+        <v>6.042290974649834</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>26.97691982663528</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>27.68091178810432</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.456700823789431</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5.602271423654926</v>
+      </c>
+      <c r="G99" t="n">
+        <v>6.891984864121087</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5</v>
+      </c>
+      <c r="O99" t="n">
+        <v>5</v>
+      </c>
+      <c r="P99" t="n">
+        <v>18.34868568791052</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>21.68560475698826</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>8.533333333333333</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>8.566666666666666</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>10</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="M100" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>36.26666666666667</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7.119049981150419</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8.443852197663364</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>10</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>7.119049981150419</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>18.44385219766336</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5785,7 +5785,7 @@
         <v>7.878390754910651</v>
       </c>
       <c r="F94" t="n">
-        <v>9.310956088448684</v>
+        <v>9.476147036988191</v>
       </c>
       <c r="G94" t="n">
         <v>10</v>
@@ -5794,7 +5794,7 @@
         <v>10</v>
       </c>
       <c r="I94" t="n">
-        <v>6.941346394792772</v>
+        <v>6.960549220560061</v>
       </c>
       <c r="J94" t="n">
         <v>10</v>
@@ -5815,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>33.21637423126921</v>
+        <v>33.2355770570365</v>
       </c>
       <c r="Q94" t="n">
-        <v>36.07480076535873</v>
+        <v>36.23999171389823</v>
       </c>
     </row>
     <row r="95">
@@ -6004,37 +6004,37 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.802331824079988</v>
+        <v>8.730719641740396</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>9.455073435052073</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>9.426184165891407</v>
       </c>
       <c r="G98" t="n">
-        <v>8.677223592853386</v>
+        <v>9.893083761673136</v>
       </c>
       <c r="H98" t="n">
-        <v>9.505661273856012</v>
+        <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>9.820660211092806</v>
       </c>
       <c r="J98" t="n">
-        <v>9.431214239560413</v>
+        <v>9.983267724329723</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>8.744036274687891</v>
+        <v>9.077626808507636</v>
       </c>
       <c r="M98" t="n">
-        <v>6.042290974649834</v>
+        <v>8.123058660957394</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6043,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>26.97691982663528</v>
+        <v>46.56752227546373</v>
       </c>
       <c r="Q98" t="n">
-        <v>27.68091178810432</v>
+        <v>38.48707869872877</v>
       </c>
     </row>
     <row r="99">
@@ -6061,28 +6061,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>6.679803770256861</v>
       </c>
       <c r="D99" t="n">
         <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>6.456700823789431</v>
+        <v>7.281635567666262</v>
       </c>
       <c r="F99" t="n">
-        <v>5.602271423654926</v>
+        <v>5.866683268186358</v>
       </c>
       <c r="G99" t="n">
         <v>6.891984864121087</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>8.90625</v>
       </c>
       <c r="J99" t="n">
-        <v>6.083333333333333</v>
+        <v>7.280332666343885</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>5.647878198898607</v>
       </c>
       <c r="N99" t="n">
         <v>5</v>
@@ -6100,10 +6100,10 @@
         <v>5</v>
       </c>
       <c r="P99" t="n">
-        <v>18.34868568791052</v>
+        <v>40.40755240094282</v>
       </c>
       <c r="Q99" t="n">
-        <v>21.68560475698826</v>
+        <v>33.14701593453024</v>
       </c>
     </row>
     <row r="100">
@@ -6127,7 +6127,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>7.466666666666665</v>
       </c>
       <c r="G100" t="n">
         <v>8.566666666666666</v>
@@ -6136,7 +6136,7 @@
         <v>8.1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="J100" t="n">
         <v>10</v>
@@ -6157,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>36.26666666666667</v>
+        <v>44.43333333333333</v>
       </c>
       <c r="Q100" t="n">
-        <v>22.7</v>
+        <v>30.16666666666666</v>
       </c>
     </row>
     <row r="101">
@@ -6218,6 +6218,234 @@
       </c>
       <c r="Q101" t="n">
         <v>18.44385219766336</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>7.876614166839925</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.012697428973726</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.884237811123356</v>
+      </c>
+      <c r="G102" t="n">
+        <v>8.70407878200314</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>8.638168564234581</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>5.206230415513048</v>
+      </c>
+      <c r="M102" t="n">
+        <v>9.15910428370217</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>32.75249466151897</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>32.72863679087099</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>5.179601660970858</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.085999312005504</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.916666666666667</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5.615569522091636</v>
+      </c>
+      <c r="N103" t="n">
+        <v>5</v>
+      </c>
+      <c r="O103" t="n">
+        <v>5</v>
+      </c>
+      <c r="P103" t="n">
+        <v>20.881170495068</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>25.91666666666667</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4.866666666666667</v>
+      </c>
+      <c r="G104" t="n">
+        <v>9.366666666666667</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>10</v>
+      </c>
+      <c r="M104" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>37.96666666666667</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>29.26666666666667</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>8.607174745530671</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>8.155773955773958</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>10</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>8.607174745530671</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>18.15577395577396</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6232,37 +6232,37 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7.876614166839925</v>
+        <v>7.97787821128389</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>7.012697428973726</v>
+        <v>7.35278171103401</v>
       </c>
       <c r="F102" t="n">
         <v>8.884237811123356</v>
       </c>
       <c r="G102" t="n">
-        <v>8.70407878200314</v>
+        <v>9.664385131777475</v>
       </c>
       <c r="H102" t="n">
         <v>10</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>8.914108356367102</v>
       </c>
       <c r="J102" t="n">
-        <v>8.638168564234581</v>
+        <v>8.843653859241947</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>5.206230415513048</v>
+        <v>5.646953252815712</v>
       </c>
       <c r="M102" t="n">
-        <v>9.15910428370217</v>
+        <v>9.677362108306161</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -6271,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>32.75249466151897</v>
+        <v>43.58651551876864</v>
       </c>
       <c r="Q102" t="n">
-        <v>32.72863679087099</v>
+        <v>33.37484492318102</v>
       </c>
     </row>
     <row r="103">
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5.179601660970858</v>
+        <v>5.338073714768675</v>
       </c>
       <c r="D103" t="n">
         <v>5</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>5.615569522091636</v>
+        <v>6.812746109883643</v>
       </c>
       <c r="N103" t="n">
         <v>5</v>
@@ -6328,7 +6328,7 @@
         <v>5</v>
       </c>
       <c r="P103" t="n">
-        <v>20.881170495068</v>
+        <v>22.23681913665782</v>
       </c>
       <c r="Q103" t="n">
         <v>25.91666666666667</v>
@@ -6364,7 +6364,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J104" t="n">
         <v>10</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>37.96666666666667</v>
+        <v>47.96666666666667</v>
       </c>
       <c r="Q104" t="n">
         <v>29.26666666666667</v>
@@ -6446,6 +6446,234 @@
       </c>
       <c r="Q105" t="n">
         <v>18.15577395577396</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>9.232373959704701</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8.562011298888885</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10</v>
+      </c>
+      <c r="J106" t="n">
+        <v>10</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>5.45718708200663</v>
+      </c>
+      <c r="M106" t="n">
+        <v>8.171515540997287</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>45.96590079959087</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>25.45718708200663</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>7.757413736082018</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5.490608354359406</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6.117991056071551</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8.409288173643924</v>
+      </c>
+      <c r="J107" t="n">
+        <v>10</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>7.591512795594428</v>
+      </c>
+      <c r="N107" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" t="n">
+        <v>5</v>
+      </c>
+      <c r="P107" t="n">
+        <v>40.36681411575132</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>7.733333333333334</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.933333333333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="H108" t="n">
+        <v>7.133333333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>10</v>
+      </c>
+      <c r="K108" t="n">
+        <v>10</v>
+      </c>
+      <c r="L108" t="n">
+        <v>10</v>
+      </c>
+      <c r="M108" t="n">
+        <v>10</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>27.13333333333333</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>7.866311318598018</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9.759705159705161</v>
+      </c>
+      <c r="K109" t="n">
+        <v>7.420877157511213</v>
+      </c>
+      <c r="L109" t="n">
+        <v>10</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>7.420877157511213</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>27.62601647830318</v>
       </c>
     </row>
   </sheetData>
